--- a/麻将表格需求.xlsx
+++ b/麻将表格需求.xlsx
@@ -1754,7 +1754,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
   <si>
     <t>游戏内显示文本表</t>
   </si>
@@ -2044,6 +2044,10 @@
       </rPr>
       <t>（支付宝？？？）</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2424,10 +2428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2871,6 +2875,11 @@
       </c>
       <c r="C24" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="C29" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/麻将表格需求.xlsx
+++ b/麻将表格需求.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1754,7 +1754,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="103">
   <si>
     <t>游戏内显示文本表</t>
   </si>
@@ -2048,6 +2048,92 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bing_2_Model</t>
+  </si>
+  <si>
+    <t>bing_3_Model</t>
+  </si>
+  <si>
+    <t>bing_4_Model</t>
+  </si>
+  <si>
+    <t>bing_5_Model</t>
+  </si>
+  <si>
+    <t>bing_6_Model</t>
+  </si>
+  <si>
+    <t>bing_7_Model</t>
+  </si>
+  <si>
+    <t>bing_8_Model</t>
+  </si>
+  <si>
+    <t>bing_9_Model</t>
+  </si>
+  <si>
+    <t>tiao_1_Model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiao_2_Model</t>
+  </si>
+  <si>
+    <t>tiao_3_Model</t>
+  </si>
+  <si>
+    <t>tiao_4_Model</t>
+  </si>
+  <si>
+    <t>tiao_5_Model</t>
+  </si>
+  <si>
+    <t>tiao_6_Model</t>
+  </si>
+  <si>
+    <t>tiao_7_Model</t>
+  </si>
+  <si>
+    <t>tiao_8_Model</t>
+  </si>
+  <si>
+    <t>tiao_9_Model</t>
+  </si>
+  <si>
+    <t>wan_1_Model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wan_4_Model</t>
+  </si>
+  <si>
+    <t>wan_5_Model</t>
+  </si>
+  <si>
+    <t>wan_6_Model</t>
+  </si>
+  <si>
+    <t>wan_7_Model</t>
+  </si>
+  <si>
+    <t>wan_8_Model</t>
+  </si>
+  <si>
+    <t>wan_9_Model</t>
+  </si>
+  <si>
+    <t>wan_2_Model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wan_3_Model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bing_1_Model</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2430,7 +2516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -2892,12 +2978,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
